--- a/target/classes/com/excel/sheets/map.xlsx
+++ b/target/classes/com/excel/sheets/map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44151a60ce0838b1/Documents/mdi-query-testing/src/main/java/com/excel/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{8D6938FF-8D6F-A749-BEAC-EC2C720AC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FDB675B-1C5F-40B3-83E8-2070681C9C94}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8D6938FF-8D6F-A749-BEAC-EC2C720AC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82CD1095-7E59-4F88-805B-AB5A2079470A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9722D506-57A5-7D4E-B968-310B68857B8E}"/>
   </bookViews>
@@ -59,7 +59,7 @@
     <t>STR_ADDRESS</t>
   </si>
   <si>
-    <t>COUNT_ID</t>
+    <t>COUN_ID</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/target/classes/com/excel/sheets/map.xlsx
+++ b/target/classes/com/excel/sheets/map.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44151a60ce0838b1/Documents/mdi-query-testing/src/main/java/com/excel/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{8D6938FF-8D6F-A749-BEAC-EC2C720AC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82CD1095-7E59-4F88-805B-AB5A2079470A}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{8D6938FF-8D6F-A749-BEAC-EC2C720AC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A21E408A-9BFC-497D-A055-25563FA297AC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9722D506-57A5-7D4E-B968-310B68857B8E}"/>
+    <workbookView xWindow="3204" yWindow="156" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{9722D506-57A5-7D4E-B968-310B68857B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,33 +34,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>LOCATION_ID</t>
-  </si>
-  <si>
-    <t>STREET_ADDRESS</t>
-  </si>
-  <si>
-    <t>POSTAL_CODE</t>
-  </si>
-  <si>
-    <t>CITY</t>
-  </si>
-  <si>
-    <t>STATE_PROVINCE</t>
-  </si>
-  <si>
-    <t>COUNTRY_ID</t>
-  </si>
-  <si>
-    <t>LOC_ID</t>
-  </si>
-  <si>
-    <t>STR_ADDRESS</t>
-  </si>
-  <si>
-    <t>COUN_ID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>LOAN</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>ACCOUNT + LOAN</t>
+  </si>
+  <si>
+    <t>End_Date DIFF Start_Date</t>
   </si>
 </sst>
 </file>
@@ -422,21 +417,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4523A146-C47F-BB4F-AD23-70BAC3B05A2B}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.19921875" customWidth="1"/>
-    <col min="2" max="2" width="21.796875" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.796875" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" customWidth="1"/>
     <col min="5" max="5" width="21.19921875" customWidth="1"/>
     <col min="6" max="6" width="23.19921875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" customWidth="1"/>
+    <col min="9" max="9" width="13.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -444,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -455,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -483,15 +478,39 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DEF841-8106-4C23-AF7E-3582F8F41DE5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/target/classes/com/excel/sheets/map.xlsx
+++ b/target/classes/com/excel/sheets/map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/44151a60ce0838b1/Documents/mdi-query-testing/src/main/java/com/excel/sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Documents\mdi-query-testing\src\main\java\com\excel\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{8D6938FF-8D6F-A749-BEAC-EC2C720AC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A21E408A-9BFC-497D-A055-25563FA297AC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670AB38-72E4-4D76-8A95-7040DDA5B712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3204" yWindow="156" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{9722D506-57A5-7D4E-B968-310B68857B8E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9722D506-57A5-7D4E-B968-310B68857B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,36 +34,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Start_Date</t>
-  </si>
-  <si>
-    <t>End_Date</t>
-  </si>
-  <si>
-    <t>LOAN</t>
-  </si>
-  <si>
-    <t>ACCOUNT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>ACCOUNT + LOAN</t>
   </si>
   <si>
     <t>End_Date DIFF Start_Date</t>
+  </si>
+  <si>
+    <t>SOURCE_KEY</t>
+  </si>
+  <si>
+    <t>TARGET_KEY</t>
+  </si>
+  <si>
+    <t>FILTERATION</t>
+  </si>
+  <si>
+    <t>LOC_ID</t>
+  </si>
+  <si>
+    <t>LOCATION_ID</t>
+  </si>
+  <si>
+    <t>SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>TARGET_NAME</t>
+  </si>
+  <si>
+    <t>Locations</t>
+  </si>
+  <si>
+    <t>Locations2</t>
+  </si>
+  <si>
+    <t>SELECT * FROM Locations</t>
+  </si>
+  <si>
+    <t>SOURCE_COLUMN</t>
+  </si>
+  <si>
+    <t>TARGET_COLUMN</t>
+  </si>
+  <si>
+    <t>FUNCTIONS</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>DEFAULT_VALUE</t>
+  </si>
+  <si>
+    <t>STR_ADDRESS</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>CITY</t>
+  </si>
+  <si>
+    <t>STATE_PROVINCE</t>
+  </si>
+  <si>
+    <t>COUN_ID</t>
+  </si>
+  <si>
+    <t>SELECT {col} FROM {tables} WHERE {col} = 'Roma'</t>
+  </si>
+  <si>
+    <t>case 500:Non-Paid;case otherwise:Paid;</t>
+  </si>
+  <si>
+    <t>POSTAL_CODE + POSTAL_CODE</t>
+  </si>
+  <si>
+    <t>HAHAHA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -77,16 +155,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -94,12 +212,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -415,19 +561,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4523A146-C47F-BB4F-AD23-70BAC3B05A2B}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.19921875" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" customWidth="1"/>
+    <col min="3" max="3" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.19921875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
@@ -435,55 +581,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -491,7 +697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DEF841-8106-4C23-AF7E-3582F8F41DE5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -502,12 +708,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/excel/sheets/map.xlsx
+++ b/target/classes/com/excel/sheets/map.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Documents\mdi-query-testing\src\main\java\com\excel\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B670AB38-72E4-4D76-8A95-7040DDA5B712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9439690-1D49-4159-B134-D51F3FB404C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9722D506-57A5-7D4E-B968-310B68857B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>ACCOUNT + LOAN</t>
   </si>
@@ -102,32 +103,109 @@
     <t>COUN_ID</t>
   </si>
   <si>
-    <t>SELECT {col} FROM {tables} WHERE {col} = 'Roma'</t>
-  </si>
-  <si>
     <t>case 500:Non-Paid;case otherwise:Paid;</t>
   </si>
   <si>
     <t>POSTAL_CODE + POSTAL_CODE</t>
   </si>
   <si>
-    <t>HAHAHA</t>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>T01</t>
+  </si>
+  <si>
+    <t>T02</t>
+  </si>
+  <si>
+    <t>T03</t>
+  </si>
+  <si>
+    <t>T04</t>
+  </si>
+  <si>
+    <t>T05</t>
+  </si>
+  <si>
+    <t>T06</t>
+  </si>
+  <si>
+    <t>T07</t>
+  </si>
+  <si>
+    <t>T08</t>
+  </si>
+  <si>
+    <t>T09</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>Value1</t>
+  </si>
+  <si>
+    <t>Value2</t>
+  </si>
+  <si>
+    <t>Value3</t>
+  </si>
+  <si>
+    <t>Value4</t>
+  </si>
+  <si>
+    <t>Value5</t>
+  </si>
+  <si>
+    <t>Value6</t>
+  </si>
+  <si>
+    <t>Value7</t>
+  </si>
+  <si>
+    <t>Value8</t>
+  </si>
+  <si>
+    <t>Value9</t>
+  </si>
+  <si>
+    <t>Value10</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>MapCol1</t>
+  </si>
+  <si>
+    <t>MapCol2</t>
+  </si>
+  <si>
+    <t>Table Soucre</t>
+  </si>
+  <si>
+    <t>TableDestination</t>
+  </si>
+  <si>
+    <t>SELECT  FROM TABle1 WHERE location_id = 'param1' and cslls = 'param2'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -178,13 +256,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -197,14 +275,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -212,40 +284,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -564,7 +617,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -572,7 +625,7 @@
     <col min="1" max="1" width="15.19921875" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" customWidth="1"/>
     <col min="3" max="3" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.296875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.19921875" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
@@ -581,10 +634,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="1"/>
@@ -600,13 +653,13 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -622,19 +675,19 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -653,11 +706,11 @@
       <c r="B7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>24</v>
+      <c r="C7" t="s">
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -668,7 +721,7 @@
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -683,8 +736,8 @@
       <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>25</v>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -694,6 +747,373 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E14F58-0391-4480-AEA1-68BC3FD77FBB}">
+  <dimension ref="B1:P22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="16" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="O4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" t="s">
+        <v>33</v>
+      </c>
+      <c r="P11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" t="s">
+        <v>38</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+      <c r="L16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>31</v>
+      </c>
+      <c r="K17" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" t="s">
+        <v>42</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" t="s">
+        <v>43</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+      <c r="K21" t="s">
+        <v>45</v>
+      </c>
+      <c r="L21" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="10:13" x14ac:dyDescent="0.3">
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" t="s">
+        <v>46</v>
+      </c>
+      <c r="L22" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DEF841-8106-4C23-AF7E-3582F8F41DE5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
